--- a/trans_fuel.xlsx
+++ b/trans_fuel.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="F2">
-        <v>0.0001477972</v>
+        <v>0.0023866</v>
       </c>
       <c r="G2">
-        <v>0.4254985253735292</v>
+        <v>0.9701207523519351</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="F3">
-        <v>0.000324993</v>
+        <v>0.0013425272014</v>
       </c>
       <c r="G3">
-        <v>0.3186369543039568</v>
+        <v>0.4371873432207063</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="F4">
-        <v>0.000788782</v>
+        <v>0.0113501881587</v>
       </c>
       <c r="G4">
-        <v>0.5474322260940026</v>
+        <v>2.867588128462173</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="F5">
-        <v>0.00301587</v>
+        <v>0.0349463918735</v>
       </c>
       <c r="G5">
-        <v>1.687565335472933</v>
+        <v>6.772606071991892</v>
       </c>
     </row>
     <row r="6">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="F6">
-        <v>0.0023866</v>
+        <v>0.09231868563131</v>
       </c>
       <c r="G6">
-        <v>0.9701207523519351</v>
+        <v>15.17047130159244</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="F7">
-        <v>0.0013425272014</v>
+        <v>0.17004537831651</v>
       </c>
       <c r="G7">
-        <v>0.4371873432207063</v>
+        <v>24.06231097890056</v>
       </c>
     </row>
     <row r="8">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="E8">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="F8">
-        <v>0.0126328911587</v>
+        <v>0.26169375985</v>
       </c>
       <c r="G8">
-        <v>3.205567847706584</v>
+        <v>32.46805267861392</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="F9">
-        <v>0.0450038858835</v>
+        <v>0.361679962</v>
       </c>
       <c r="G9">
-        <v>8.905573989930931</v>
+        <v>40.03746479904491</v>
       </c>
     </row>
     <row r="10">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="F10">
-        <v>0.11979629963131</v>
+        <v>0.4523445017</v>
       </c>
       <c r="G10">
-        <v>20.6331200703913</v>
+        <v>45.11346592551789</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="E11">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="F11">
-        <v>0.21233153991651</v>
+        <v>0.53081146644</v>
       </c>
       <c r="G11">
-        <v>32.0689952492318</v>
+        <v>47.58592185107141</v>
       </c>
     </row>
     <row r="12">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="F12">
-        <v>0.31454474131</v>
+        <v>0.5933531293400001</v>
       </c>
       <c r="G12">
-        <v>42.10930665356823</v>
+        <v>48.01205372994128</v>
       </c>
     </row>
     <row r="13">
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="F13">
-        <v>0.4208820597</v>
+        <v>0.64994067592</v>
       </c>
       <c r="G13">
-        <v>50.43132173405268</v>
+        <v>48.15237404050959</v>
       </c>
     </row>
     <row r="14">
@@ -784,17 +784,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E14">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="F14">
-        <v>0.5148734401</v>
+        <v>0.022517027</v>
       </c>
       <c r="G14">
-        <v>55.58782270210809</v>
+        <v>9.152868169768222</v>
       </c>
     </row>
     <row r="15">
@@ -815,17 +815,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E15">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="F15">
-        <v>0.59431859509</v>
+        <v>0.03876154074</v>
       </c>
       <c r="G15">
-        <v>57.45947720831099</v>
+        <v>12.6225040338775</v>
       </c>
     </row>
     <row r="16">
@@ -846,17 +846,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E16">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="F16">
-        <v>0.65514006393</v>
+        <v>0.03868644177</v>
       </c>
       <c r="G16">
-        <v>56.80652804327048</v>
+        <v>9.774003708217057</v>
       </c>
     </row>
     <row r="17">
@@ -877,17 +877,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E17">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="F17">
-        <v>0.70785348444</v>
+        <v>0.06163033511</v>
       </c>
       <c r="G17">
-        <v>55.77694881910902</v>
+        <v>11.94395070300221</v>
       </c>
     </row>
     <row r="18">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="E18">
-        <v>2005</v>
+        <v>2035</v>
       </c>
       <c r="F18">
-        <v>0.002812838</v>
+        <v>0.10297015339</v>
       </c>
       <c r="G18">
-        <v>1.952172042442401</v>
+        <v>16.92079719551138</v>
       </c>
     </row>
     <row r="19">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="E19">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="F19">
-        <v>0.00980674</v>
+        <v>0.14119724733</v>
       </c>
       <c r="G19">
-        <v>5.487476077548379</v>
+        <v>19.98014946513442</v>
       </c>
     </row>
     <row r="20">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>2015</v>
+        <v>2045</v>
       </c>
       <c r="F20">
-        <v>0.022517027</v>
+        <v>0.17157739671</v>
       </c>
       <c r="G20">
-        <v>9.152868169768222</v>
+        <v>21.28741609288976</v>
       </c>
     </row>
     <row r="21">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="F21">
-        <v>0.03876154074</v>
+        <v>0.19370340398</v>
       </c>
       <c r="G21">
-        <v>12.6225040338775</v>
+        <v>21.44269529176854</v>
       </c>
     </row>
     <row r="22">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>2025</v>
+        <v>2055</v>
       </c>
       <c r="F22">
-        <v>0.03841034277</v>
+        <v>0.22712552215</v>
       </c>
       <c r="G22">
-        <v>9.746538480869138</v>
+        <v>22.65180513042917</v>
       </c>
     </row>
     <row r="23">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>2030</v>
+        <v>2060</v>
       </c>
       <c r="F23">
-        <v>0.05549969911</v>
+        <v>0.268155358336</v>
       </c>
       <c r="G23">
-        <v>10.98253333328757</v>
+        <v>24.03945794785372</v>
       </c>
     </row>
     <row r="24">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="F24">
-        <v>0.08032558719000001</v>
+        <v>0.3151207397993</v>
       </c>
       <c r="G24">
-        <v>13.83488046222411</v>
+        <v>25.49846481384841</v>
       </c>
     </row>
     <row r="25">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>2040</v>
+        <v>2070</v>
       </c>
       <c r="F25">
-        <v>0.09905559064</v>
+        <v>0.3578961345822</v>
       </c>
       <c r="G25">
-        <v>14.96062839695447</v>
+        <v>26.51557161837937</v>
       </c>
     </row>
     <row r="26">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E26">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="F26">
-        <v>0.10830193332</v>
+        <v>2.69057e-009</v>
       </c>
       <c r="G26">
-        <v>14.49879372439278</v>
+        <v>8.761708133903706e-007</v>
       </c>
     </row>
     <row r="27">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E27">
-        <v>2050</v>
+        <v>2025</v>
       </c>
       <c r="F27">
-        <v>0.1127949177</v>
+        <v>2.913945e-009</v>
       </c>
       <c r="G27">
-        <v>13.5154175698278</v>
+        <v>7.361987283520739e-007</v>
       </c>
     </row>
     <row r="28">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E28">
-        <v>2055</v>
+        <v>2030</v>
       </c>
       <c r="F28">
-        <v>0.13160885398</v>
+        <v>2.806235e-009</v>
       </c>
       <c r="G28">
-        <v>14.20902511430182</v>
+        <v>5.438479677453665e-007</v>
       </c>
     </row>
     <row r="29">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E29">
-        <v>2060</v>
+        <v>2035</v>
       </c>
       <c r="F29">
-        <v>0.162591030832</v>
+        <v>1.107276e-009</v>
       </c>
       <c r="G29">
-        <v>15.71950752937882</v>
+        <v>1.819555669155351e-007</v>
       </c>
     </row>
     <row r="30">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E30">
-        <v>2065</v>
+        <v>2040</v>
       </c>
       <c r="F30">
-        <v>0.2045035514994</v>
+        <v>2.25347e-010</v>
       </c>
       <c r="G30">
-        <v>17.7322947760379</v>
+        <v>3.188777987290841e-008</v>
       </c>
     </row>
     <row r="31">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E31">
-        <v>2070</v>
+        <v>2015</v>
       </c>
       <c r="F31">
-        <v>0.2478024676296</v>
+        <v>0.221106985</v>
       </c>
       <c r="G31">
-        <v>19.52616729033943</v>
+        <v>89.87701107787984</v>
       </c>
     </row>
     <row r="32">
@@ -1342,17 +1342,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E32">
         <v>2020</v>
       </c>
       <c r="F32">
-        <v>2.69057e-009</v>
+        <v>0.2669787446</v>
       </c>
       <c r="G32">
-        <v>8.761708133903706e-007</v>
+        <v>86.94030774673097</v>
       </c>
     </row>
     <row r="33">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E33">
         <v>2025</v>
       </c>
       <c r="F33">
-        <v>2.900183e-009</v>
+        <v>0.3457729343</v>
       </c>
       <c r="G33">
-        <v>7.359149430225847e-007</v>
+        <v>87.35840742712205</v>
       </c>
     </row>
     <row r="34">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E34">
         <v>2030</v>
       </c>
       <c r="F34">
-        <v>2.748346e-009</v>
+        <v>0.41941949828</v>
       </c>
       <c r="G34">
-        <v>5.438552287749074e-007</v>
+        <v>81.28344268115792</v>
       </c>
     </row>
     <row r="35">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E35">
         <v>2035</v>
       </c>
       <c r="F35">
-        <v>1.051674e-009</v>
+        <v>0.41325313458</v>
       </c>
       <c r="G35">
-        <v>1.811351100467327e-007</v>
+        <v>67.9087313209406</v>
       </c>
     </row>
     <row r="36">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E36">
         <v>2040</v>
       </c>
       <c r="F36">
-        <v>1.8757e-010</v>
+        <v>0.395445017163</v>
       </c>
       <c r="G36">
-        <v>2.832919424624159e-008</v>
+        <v>55.95753952407725</v>
       </c>
     </row>
     <row r="37">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="E37">
-        <v>1975</v>
+        <v>2045</v>
       </c>
       <c r="F37">
-        <v>0.0345872703</v>
+        <v>0.37273270958</v>
       </c>
       <c r="G37">
-        <v>99.57450147462646</v>
+        <v>46.24453122849632</v>
       </c>
     </row>
     <row r="38">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="E38">
-        <v>1990</v>
+        <v>2050</v>
       </c>
       <c r="F38">
-        <v>0.101669768</v>
+        <v>0.3479704398</v>
       </c>
       <c r="G38">
-        <v>99.68136304569605</v>
+        <v>38.51983990918655</v>
       </c>
     </row>
     <row r="39">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="E39">
-        <v>2005</v>
+        <v>2055</v>
       </c>
       <c r="F39">
-        <v>0.140485988</v>
+        <v>0.32321175291</v>
       </c>
       <c r="G39">
-        <v>97.5003957314636</v>
+        <v>32.23472894405294</v>
       </c>
     </row>
     <row r="40">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2060</v>
       </c>
       <c r="F40">
-        <v>0.165888693</v>
+        <v>0.31651322855</v>
       </c>
       <c r="G40">
-        <v>92.82495858697868</v>
+        <v>28.37462020107488</v>
       </c>
     </row>
     <row r="41">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2065</v>
       </c>
       <c r="F41">
-        <v>0.221106985</v>
+        <v>0.327368139781</v>
       </c>
       <c r="G41">
-        <v>89.87701107787984</v>
+        <v>26.48948145621032</v>
       </c>
     </row>
     <row r="42">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>2020</v>
+        <v>2070</v>
       </c>
       <c r="F42">
-        <v>0.2669787446</v>
+        <v>0.3419215116383</v>
       </c>
       <c r="G42">
-        <v>86.94030774673097</v>
+        <v>25.33205434111104</v>
       </c>
     </row>
     <row r="43">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E43">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="F43">
-        <v>0.3430489103</v>
+        <v>0.0023866</v>
       </c>
       <c r="G43">
-        <v>87.04789293550932</v>
+        <v>0.9701207523519351</v>
       </c>
     </row>
     <row r="44">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E44">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F44">
-        <v>0.40484155828</v>
+        <v>0.0013425272014</v>
       </c>
       <c r="G44">
-        <v>80.11189213292627</v>
+        <v>0.4371873432207063</v>
       </c>
     </row>
     <row r="45">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E45">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="F45">
-        <v>0.38048007258</v>
+        <v>0.0113510612687</v>
       </c>
       <c r="G45">
-        <v>65.53199928624949</v>
+        <v>2.867838567464846</v>
       </c>
     </row>
     <row r="46">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1776,17 +1776,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E46">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="F46">
-        <v>0.350721358363</v>
+        <v>0.0349450839835</v>
       </c>
       <c r="G46">
-        <v>52.97037632548452</v>
+        <v>6.772315668247714</v>
       </c>
     </row>
     <row r="47">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E47">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="F47">
-        <v>0.324125352</v>
+        <v>0.09687710656131</v>
       </c>
       <c r="G47">
-        <v>43.391899622039</v>
+        <v>15.97933387219151</v>
       </c>
     </row>
     <row r="48">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1838,17 +1838,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E48">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="F48">
-        <v>0.30088782326</v>
+        <v>0.17794696437651</v>
       </c>
       <c r="G48">
-        <v>36.05326069611953</v>
+        <v>25.37227918301197</v>
       </c>
     </row>
     <row r="49">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E49">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="F49">
-        <v>0.27975193326</v>
+        <v>0.30461401626</v>
       </c>
       <c r="G49">
-        <v>30.20315218359009</v>
+        <v>39.9101286943564</v>
       </c>
     </row>
     <row r="50">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E50">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="F50">
-        <v>0.277416866356</v>
+        <v>0.4912026583</v>
       </c>
       <c r="G50">
-        <v>26.82101526231019</v>
+        <v>68.6376007295664</v>
       </c>
     </row>
     <row r="51">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1931,17 +1931,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E51">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="F51">
-        <v>0.293639442868</v>
+        <v>0.6362393153</v>
       </c>
       <c r="G51">
-        <v>25.46117718069161</v>
+        <v>89.85409012971537</v>
       </c>
     </row>
     <row r="52">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Net_Zero</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>refined liquids</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="E52">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="F52">
-        <v>0.3134229406028</v>
+        <v>0.74908438318</v>
       </c>
       <c r="G52">
-        <v>24.69688389055156</v>
+        <v>98.50158795499429</v>
       </c>
     </row>
     <row r="53">
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="E53">
-        <v>1975</v>
+        <v>2065</v>
       </c>
       <c r="F53">
-        <v>0.0001477972</v>
+        <v>0.83501374422</v>
       </c>
       <c r="G53">
-        <v>0.4254985253735292</v>
+        <v>99.87947556310873</v>
       </c>
     </row>
     <row r="54">
@@ -2028,13 +2028,13 @@
         </is>
       </c>
       <c r="E54">
-        <v>1990</v>
+        <v>2070</v>
       </c>
       <c r="F54">
-        <v>0.000324993</v>
+        <v>0.90655223848</v>
       </c>
       <c r="G54">
-        <v>0.3186369543039568</v>
+        <v>99.96709255619453</v>
       </c>
     </row>
     <row r="55">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E55">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="F55">
-        <v>0.000788782</v>
+        <v>0.022517027</v>
       </c>
       <c r="G55">
-        <v>0.5474322260940026</v>
+        <v>9.152868169768222</v>
       </c>
     </row>
     <row r="56">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E56">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="F56">
-        <v>0.00301587</v>
+        <v>0.03876154074</v>
       </c>
       <c r="G56">
-        <v>1.687565335472933</v>
+        <v>12.6225040338775</v>
       </c>
     </row>
     <row r="57">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E57">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="F57">
-        <v>0.0023866</v>
+        <v>0.03868868177</v>
       </c>
       <c r="G57">
-        <v>0.9701207523519351</v>
+        <v>9.77467137899496</v>
       </c>
     </row>
     <row r="58">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E58">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="F58">
-        <v>0.0013425272014</v>
+        <v>0.06164399711</v>
       </c>
       <c r="G58">
-        <v>0.4371873432207063</v>
+        <v>11.94653324280427</v>
       </c>
     </row>
     <row r="59">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E59">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="F59">
-        <v>0.0126339852787</v>
+        <v>0.09990588959000001</v>
       </c>
       <c r="G59">
-        <v>3.205881522702593</v>
+        <v>16.47891459832763</v>
       </c>
     </row>
     <row r="60">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E60">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="F60">
-        <v>0.0450027889935</v>
+        <v>0.13449890808</v>
       </c>
       <c r="G60">
-        <v>8.905335836176571</v>
+        <v>19.17730857378143</v>
       </c>
     </row>
     <row r="61">
@@ -2241,17 +2241,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E61">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="F61">
-        <v>0.12442246667131</v>
+        <v>0.12941351956</v>
       </c>
       <c r="G61">
-        <v>21.49021938634736</v>
+        <v>16.95558951568649</v>
       </c>
     </row>
     <row r="62">
@@ -2272,17 +2272,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E62">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="F62">
-        <v>0.21939678828651</v>
+        <v>0.08097185178000001</v>
       </c>
       <c r="G62">
-        <v>33.32985196979777</v>
+        <v>11.31450235233646</v>
       </c>
     </row>
     <row r="63">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E63">
-        <v>2045</v>
+        <v>2055</v>
       </c>
       <c r="F63">
-        <v>0.34484285272</v>
+        <v>0.03348800658</v>
       </c>
       <c r="G63">
-        <v>48.01382942322348</v>
+        <v>4.729406512838647</v>
       </c>
     </row>
     <row r="64">
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E64">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="F64">
-        <v>0.514523851</v>
+        <v>0.006400619426000001</v>
       </c>
       <c r="G64">
-        <v>75.12511225911855</v>
+        <v>0.8416557486889779</v>
       </c>
     </row>
     <row r="65">
@@ -2365,17 +2365,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E65">
-        <v>2055</v>
+        <v>2065</v>
       </c>
       <c r="F65">
-        <v>0.6460834718</v>
+        <v>0.0003854537347</v>
       </c>
       <c r="G65">
-        <v>93.0466552069753</v>
+        <v>0.04610572836934571</v>
       </c>
     </row>
     <row r="66">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E66">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="F66">
-        <v>0.75099344683</v>
+        <v>2.69057e-009</v>
       </c>
       <c r="G66">
-        <v>99.11344640081589</v>
+        <v>8.761708133903706e-007</v>
       </c>
     </row>
     <row r="67">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E67">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="F67">
-        <v>0.83519408426</v>
+        <v>2.923078e-009</v>
       </c>
       <c r="G67">
-        <v>99.92132608996474</v>
+        <v>7.38513838104591e-007</v>
       </c>
     </row>
     <row r="68">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E68">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="F68">
-        <v>0.9065837472</v>
+        <v>2.835083e-009</v>
       </c>
       <c r="G68">
-        <v>99.97867482807466</v>
+        <v>5.494357097767578e-007</v>
       </c>
     </row>
     <row r="69">
@@ -2489,17 +2489,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E69">
-        <v>2005</v>
+        <v>2035</v>
       </c>
       <c r="F69">
-        <v>0.002812838</v>
+        <v>1.134693e-009</v>
       </c>
       <c r="G69">
-        <v>1.952172042442401</v>
+        <v>1.871612286228197e-007</v>
       </c>
     </row>
     <row r="70">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="F70">
-        <v>0.00980674</v>
+        <v>2.42248e-010</v>
       </c>
       <c r="G70">
-        <v>5.487476077548379</v>
+        <v>3.454053801401986e-008</v>
       </c>
     </row>
     <row r="71">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E71">
-        <v>2015</v>
+        <v>2060</v>
       </c>
       <c r="F71">
-        <v>0.022517027</v>
+        <v>3.53982e-006</v>
       </c>
       <c r="G71">
-        <v>9.152868169768222</v>
+        <v>0.0004654721135616879</v>
       </c>
     </row>
     <row r="72">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E72">
-        <v>2020</v>
+        <v>2065</v>
       </c>
       <c r="F72">
-        <v>0.03876154074</v>
+        <v>0.00016834804</v>
       </c>
       <c r="G72">
-        <v>12.6225040338775</v>
+        <v>0.02013681099702612</v>
       </c>
     </row>
     <row r="73">
@@ -2613,17 +2613,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>hydrogen</t>
         </is>
       </c>
       <c r="E73">
-        <v>2025</v>
+        <v>2070</v>
       </c>
       <c r="F73">
-        <v>0.03841244177</v>
+        <v>0.00027392598</v>
       </c>
       <c r="G73">
-        <v>9.747180687312278</v>
+        <v>0.03020629439084488</v>
       </c>
     </row>
     <row r="74">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E74">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="F74">
-        <v>0.05551175311</v>
+        <v>0.221106985</v>
       </c>
       <c r="G74">
-        <v>10.98489261123063</v>
+        <v>89.87701107787984</v>
       </c>
     </row>
     <row r="75">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E75">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="F75">
-        <v>0.07757841569</v>
+        <v>0.2669787446</v>
       </c>
       <c r="G75">
-        <v>13.39932584062633</v>
+        <v>86.94030774673097</v>
       </c>
     </row>
     <row r="76">
@@ -2706,17 +2706,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E76">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="F76">
-        <v>0.09368263359</v>
+        <v>0.3457657013</v>
       </c>
       <c r="G76">
-        <v>14.23187793258819</v>
+        <v>87.35748931502634</v>
       </c>
     </row>
     <row r="77">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E77">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="F77">
-        <v>0.08222585134</v>
+        <v>0.41940995828</v>
       </c>
       <c r="G77">
-        <v>11.44862933732806</v>
+        <v>81.28115053951231</v>
       </c>
     </row>
     <row r="78">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E78">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="F78">
-        <v>0.04795400738</v>
+        <v>0.40948199058</v>
       </c>
       <c r="G78">
-        <v>7.001716598162326</v>
+        <v>67.54175134231963</v>
       </c>
     </row>
     <row r="79">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E79">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="F79">
-        <v>0.01796922052</v>
+        <v>0.388898153563</v>
       </c>
       <c r="G79">
-        <v>2.587863548659418</v>
+        <v>55.45041220866607</v>
       </c>
     </row>
     <row r="80">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E80">
-        <v>2060</v>
+        <v>2045</v>
       </c>
       <c r="F80">
-        <v>0.003149675275</v>
+        <v>0.32922236145</v>
       </c>
       <c r="G80">
-        <v>0.4156829501860536</v>
+        <v>43.13428178995711</v>
       </c>
     </row>
     <row r="81">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E81">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="F81">
-        <v>0.0001855837819</v>
+        <v>0.14347209335439</v>
       </c>
       <c r="G81">
-        <v>0.02220295610052002</v>
+        <v>20.04789691809715</v>
       </c>
     </row>
     <row r="82">
@@ -2892,17 +2892,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E82">
-        <v>2020</v>
+        <v>2055</v>
       </c>
       <c r="F82">
-        <v>2.69057e-009</v>
+        <v>0.03835320554119</v>
       </c>
       <c r="G82">
-        <v>8.761708133903706e-007</v>
+        <v>5.416503357445986</v>
       </c>
     </row>
     <row r="83">
@@ -2923,17 +2923,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E83">
-        <v>2025</v>
+        <v>2060</v>
       </c>
       <c r="F83">
-        <v>2.907558e-009</v>
+        <v>0.004990957175833</v>
       </c>
       <c r="G83">
-        <v>7.377946279628117e-007</v>
+        <v>0.6562908242031683</v>
       </c>
     </row>
     <row r="84">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E84">
-        <v>2030</v>
+        <v>2065</v>
       </c>
       <c r="F84">
-        <v>2.768243e-009</v>
+        <v>0.0004538082548</v>
       </c>
       <c r="G84">
-        <v>5.477912401097094e-007</v>
+        <v>0.05428189752490063</v>
       </c>
     </row>
     <row r="85">
@@ -2985,637 +2985,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hydrogen</t>
+          <t>refined liquids</t>
         </is>
       </c>
       <c r="E85">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="F85">
-        <v>1.070446e-009</v>
+        <v>2.449539129e-005</v>
       </c>
       <c r="G85">
-        <v>1.848871831323563e-007</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>hydrogen</t>
-        </is>
-      </c>
-      <c r="E86">
-        <v>2040</v>
-      </c>
-      <c r="F86">
-        <v>1.98317e-010</v>
-      </c>
-      <c r="G86">
-        <v>3.012749778480145e-008</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>hydrogen</t>
-        </is>
-      </c>
-      <c r="E87">
-        <v>2060</v>
-      </c>
-      <c r="F87">
-        <v>1.6788e-006</v>
-      </c>
-      <c r="G87">
-        <v>0.0002215620582576871</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>hydrogen</t>
-        </is>
-      </c>
-      <c r="E88">
-        <v>2065</v>
-      </c>
-      <c r="F88">
-        <v>9.939132999999999e-005</v>
-      </c>
-      <c r="G88">
-        <v>0.01189102471223159</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>hydrogen</t>
-        </is>
-      </c>
-      <c r="E89">
-        <v>2070</v>
-      </c>
-      <c r="F89">
-        <v>0.00016888041</v>
-      </c>
-      <c r="G89">
-        <v>0.01862424695828689</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E90">
-        <v>1975</v>
-      </c>
-      <c r="F90">
-        <v>0.0345872703</v>
-      </c>
-      <c r="G90">
-        <v>99.57450147462646</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E91">
-        <v>1990</v>
-      </c>
-      <c r="F91">
-        <v>0.101669768</v>
-      </c>
-      <c r="G91">
-        <v>99.68136304569605</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E92">
-        <v>2005</v>
-      </c>
-      <c r="F92">
-        <v>0.140485988</v>
-      </c>
-      <c r="G92">
-        <v>97.5003957314636</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E93">
-        <v>2010</v>
-      </c>
-      <c r="F93">
-        <v>0.165888693</v>
-      </c>
-      <c r="G93">
-        <v>92.82495858697868</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E94">
-        <v>2015</v>
-      </c>
-      <c r="F94">
-        <v>0.221106985</v>
-      </c>
-      <c r="G94">
-        <v>89.87701107787984</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>2020</v>
-      </c>
-      <c r="F95">
-        <v>0.2669787446</v>
-      </c>
-      <c r="G95">
-        <v>86.94030774673097</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>2025</v>
-      </c>
-      <c r="F96">
-        <v>0.3430412863</v>
-      </c>
-      <c r="G96">
-        <v>87.0469370521905</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E97">
-        <v>2030</v>
-      </c>
-      <c r="F97">
-        <v>0.40483179828</v>
-      </c>
-      <c r="G97">
-        <v>80.10977100480156</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>2035</v>
-      </c>
-      <c r="F98">
-        <v>0.37697164558</v>
-      </c>
-      <c r="G98">
-        <v>65.11045458813912</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E99">
-        <v>2040</v>
-      </c>
-      <c r="F99">
-        <v>0.345179691963</v>
-      </c>
-      <c r="G99">
-        <v>52.43827006748656</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E100">
-        <v>2045</v>
-      </c>
-      <c r="F100">
-        <v>0.29114697851</v>
-      </c>
-      <c r="G100">
-        <v>40.53754123944846</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E101">
-        <v>2050</v>
-      </c>
-      <c r="F101">
-        <v>0.12241143566235</v>
-      </c>
-      <c r="G101">
-        <v>17.87317114271912</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E102">
-        <v>2055</v>
-      </c>
-      <c r="F102">
-        <v>0.03031237686259</v>
-      </c>
-      <c r="G102">
-        <v>4.365481244365284</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E103">
-        <v>2060</v>
-      </c>
-      <c r="F103">
-        <v>0.003566159717814</v>
-      </c>
-      <c r="G103">
-        <v>0.4706490869397919</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E104">
-        <v>2065</v>
-      </c>
-      <c r="F104">
-        <v>0.000372622088</v>
-      </c>
-      <c r="G104">
-        <v>0.04457992922251201</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>EJ</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Net_Zero</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>refined liquids</t>
-        </is>
-      </c>
-      <c r="E105">
-        <v>2070</v>
-      </c>
-      <c r="F105">
-        <v>2.4491369602e-005</v>
-      </c>
-      <c r="G105">
-        <v>0.002700924967048152</v>
+        <v>0.002701149414614407</v>
       </c>
     </row>
   </sheetData>
